--- a/public/uploads/IT_B.xlsx
+++ b/public/uploads/IT_B.xlsx
@@ -439,7 +439,7 @@
         <v>3.5</v>
       </c>
       <c r="F2" t="str">
-        <v>lund</v>
+        <v>land</v>
       </c>
     </row>
     <row r="3">

--- a/public/uploads/IT_B.xlsx
+++ b/public/uploads/IT_B.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -443,8 +443,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="str">
+        <v>VU4F2324075</v>
       </c>
       <c r="B3" t="str">
         <v>prajyot</v>
@@ -459,12 +459,32 @@
         <v>10</v>
       </c>
       <c r="F3" t="str">
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>VU4F2324074</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Krish</v>
+      </c>
+      <c r="C4" t="str">
+        <v>vu4f2324074@pvppcoe.ac.in</v>
+      </c>
+      <c r="D4" t="str">
+        <v>18</v>
+      </c>
+      <c r="E4" t="str">
+        <v>8</v>
+      </c>
+      <c r="F4" t="str">
         <v>IT</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>